--- a/ScrumPlaning.xlsx
+++ b/ScrumPlaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EllingerHTL\Documents\html\first_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1483D06-C26E-49B2-AF50-92DB23556CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE2F04-AEE8-46C8-BFE8-6587A9366BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29AB13BC-7991-451C-A16A-1A43861FC25D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -80,18 +80,12 @@
     <t>Headlines for the first page</t>
   </si>
   <si>
-    <t>Order of headlines, pictures, Calendar and small ToDoList</t>
-  </si>
-  <si>
     <t>Calender Preview</t>
   </si>
   <si>
     <t xml:space="preserve">ToDoList Preview </t>
   </si>
   <si>
-    <t>Field with generated phrases or jokes or smal/random  exercises for the day like workout or read a book or IDK</t>
-  </si>
-  <si>
     <t>Make a conzept for the calender, how should it look, what fiatures should it have</t>
   </si>
   <si>
@@ -189,6 +183,39 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Useful AI Tools</t>
+  </si>
+  <si>
+    <t>Designe of FirstPage</t>
+  </si>
+  <si>
+    <t>When the Headlines and the Links to the Sub-Sites are structured and have a nice first impression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find some pictures and decide wher to place them on the first page </t>
+  </si>
+  <si>
+    <t>Wher should be the Calender on the first page and how should it look like (without logic)</t>
+  </si>
+  <si>
+    <t>Wher should be the To-Do list on the first page and how should it look like (without logic)</t>
+  </si>
+  <si>
+    <t>Where should the "Daily work" be on the first page and how should it work</t>
+  </si>
+  <si>
+    <t>Field with generated phrases or jokes or small/random  exercises for the day like workout or read a book or IDK</t>
+  </si>
+  <si>
+    <t>filalize the designe of the first page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the first page is finished(without logic) </t>
+  </si>
+  <si>
+    <t>Wenn man über den Plant Buton hovert sollen pflanzen raus wachsen oder dergleichen</t>
   </si>
 </sst>
 </file>
@@ -575,15 +602,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B498611D-B8C3-452A-8028-4CFD4EC19E79}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="94.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -610,406 +637,544 @@
       <c r="A2">
         <v>1000</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1033</v>
       </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
       <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1034</v>
       </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1035</v>
       </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1036</v>
       </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1037</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
